--- a/biology/Botanique/Dodecatheon_meadia/Dodecatheon_meadia.xlsx
+++ b/biology/Botanique/Dodecatheon_meadia/Dodecatheon_meadia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Primula meadia
-La giroselle de Virginie (Primula meadia[1] ou Dodecatheon pauciflorum) est une espèce de plantes à fleurs de la famille des Primulaceae.
+La giroselle de Virginie (Primula meadia ou Dodecatheon pauciflorum) est une espèce de plantes à fleurs de la famille des Primulaceae.
 Synonyme :
 Dodecatheon meadia L.
 </t>
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante vivace rustique dont la fleur est réputée pour sa beauté. Cette plante atteint 40 cm de haut pour 25 cm de diamètre environ.
 Ses feuilles ovales dentées, longues de 10 à 25 cm sont de couleur vert pâle à moyen.
@@ -547,7 +561,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Origine : sud-ouest des États-Unis.
 </t>
